--- a/cfs_6_0.3.xlsx
+++ b/cfs_6_0.3.xlsx
@@ -536,7 +536,7 @@
         <v>0.639</v>
       </c>
       <c r="J2" t="n">
-        <v>0.314</v>
+        <v>0.501</v>
       </c>
       <c r="K2" t="n">
         <v>0.556</v>
@@ -573,7 +573,7 @@
         <v>0.624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.712</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0.375</v>
@@ -616,10 +616,10 @@
         <v>0.601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.521</v>
+        <v>0.58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.626</v>
+        <v>0.734</v>
       </c>
       <c r="H4" t="n">
         <v>0.394</v>
@@ -662,7 +662,7 @@
         <v>0.628</v>
       </c>
       <c r="F5" t="n">
-        <v>0.589</v>
+        <v>0.627</v>
       </c>
       <c r="G5" t="n">
         <v>0.789</v>
@@ -680,7 +680,7 @@
         <v>0.417</v>
       </c>
       <c r="L5" t="n">
-        <v>0.48</v>
+        <v>0.429</v>
       </c>
       <c r="M5" t="n">
         <v>7.583333333333333</v>
@@ -714,7 +714,7 @@
         <v>0.723</v>
       </c>
       <c r="H6" t="n">
-        <v>0.315</v>
+        <v>0.404</v>
       </c>
       <c r="I6" t="n">
         <v>0.589</v>
@@ -812,7 +812,7 @@
         <v>0.579</v>
       </c>
       <c r="J8" t="n">
-        <v>0.392</v>
+        <v>0.431</v>
       </c>
       <c r="K8" t="n">
         <v>0.465</v>
@@ -849,7 +849,7 @@
         <v>0.601</v>
       </c>
       <c r="G9" t="n">
-        <v>0.72</v>
+        <v>0.744</v>
       </c>
       <c r="H9" t="n">
         <v>0.395</v>
@@ -907,7 +907,7 @@
         <v>0.331</v>
       </c>
       <c r="K10" t="n">
-        <v>0.513</v>
+        <v>0.418</v>
       </c>
       <c r="L10" t="n">
         <v>0.433</v>
@@ -1042,10 +1042,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.303</v>
+        <v>0.384</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4</v>
+        <v>0.458</v>
       </c>
       <c r="L13" t="n">
         <v>0.447</v>
@@ -1183,7 +1183,7 @@
         <v>0.337</v>
       </c>
       <c r="K16" t="n">
-        <v>0.522</v>
+        <v>0.459</v>
       </c>
       <c r="L16" t="n">
         <v>0.43</v>
@@ -1901,7 +1901,7 @@
         <v>0.426</v>
       </c>
       <c r="E32" t="n">
-        <v>0.583</v>
+        <v>0.524</v>
       </c>
       <c r="F32" t="n">
         <v>0.511</v>
@@ -2689,7 +2689,7 @@
         <v>0.535</v>
       </c>
       <c r="G49" t="n">
-        <v>0.573</v>
+        <v>0.599</v>
       </c>
       <c r="H49" t="n">
         <v>0.475</v>
@@ -3287,13 +3287,13 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.616</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
       </c>
       <c r="I62" t="n">
-        <v>0.532</v>
+        <v>0.537</v>
       </c>
       <c r="J62" t="n">
         <v>0.352</v>
@@ -3425,7 +3425,7 @@
         <v>0.592</v>
       </c>
       <c r="G65" t="n">
-        <v>0.681</v>
+        <v>0.74</v>
       </c>
       <c r="H65" t="n">
         <v>0.39</v>
@@ -3440,7 +3440,7 @@
         <v>0.45</v>
       </c>
       <c r="L65" t="n">
-        <v>0.463</v>
+        <v>0.447</v>
       </c>
       <c r="M65" t="n">
         <v>3.925925925925926</v>
@@ -3563,7 +3563,7 @@
         <v>0.496</v>
       </c>
       <c r="G68" t="n">
-        <v>0.602</v>
+        <v>0.624</v>
       </c>
       <c r="H68" t="n">
         <v>0.362</v>
@@ -3572,7 +3572,7 @@
         <v>0.518</v>
       </c>
       <c r="J68" t="n">
-        <v>0.325</v>
+        <v>0.344</v>
       </c>
       <c r="K68" t="n">
         <v>0.487</v>
@@ -3603,10 +3603,10 @@
         <v>0.463</v>
       </c>
       <c r="E69" t="n">
-        <v>0.553</v>
+        <v>0.542</v>
       </c>
       <c r="F69" t="n">
-        <v>0.518</v>
+        <v>0.494</v>
       </c>
       <c r="G69" t="n">
         <v>0.616</v>
@@ -3971,13 +3971,13 @@
         <v>0.46</v>
       </c>
       <c r="E77" t="n">
-        <v>0.581</v>
+        <v>0.601</v>
       </c>
       <c r="F77" t="n">
         <v>0.533</v>
       </c>
       <c r="G77" t="n">
-        <v>0.669</v>
+        <v>0.711</v>
       </c>
       <c r="H77" t="n">
         <v>0.343</v>
@@ -4167,10 +4167,10 @@
         <v>0.361</v>
       </c>
       <c r="I81" t="n">
-        <v>0.503</v>
+        <v>0.58</v>
       </c>
       <c r="J81" t="n">
-        <v>0.288</v>
+        <v>0.418</v>
       </c>
       <c r="K81" t="n">
         <v>0.4</v>
@@ -4305,10 +4305,10 @@
         <v>0.307</v>
       </c>
       <c r="I84" t="n">
-        <v>0.544</v>
+        <v>0.58</v>
       </c>
       <c r="J84" t="n">
-        <v>0.265</v>
+        <v>0.418</v>
       </c>
       <c r="K84" t="n">
         <v>0.376</v>
@@ -4483,7 +4483,7 @@
         <v>0.573</v>
       </c>
       <c r="G88" t="n">
-        <v>0.632</v>
+        <v>0.671</v>
       </c>
       <c r="H88" t="n">
         <v>0.341</v>
@@ -4523,7 +4523,7 @@
         <v>0.453</v>
       </c>
       <c r="E89" t="n">
-        <v>0.556</v>
+        <v>0.52</v>
       </c>
       <c r="F89" t="n">
         <v>0.516</v>
@@ -4538,7 +4538,7 @@
         <v>0.482</v>
       </c>
       <c r="J89" t="n">
-        <v>0.279</v>
+        <v>0.259</v>
       </c>
       <c r="K89" t="n">
         <v>0.407</v>
@@ -4572,7 +4572,7 @@
         <v>0.541</v>
       </c>
       <c r="F90" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="G90" t="n">
         <v>0.599</v>
@@ -4587,7 +4587,7 @@
         <v>0.319</v>
       </c>
       <c r="K90" t="n">
-        <v>0.468</v>
+        <v>0.383</v>
       </c>
       <c r="L90" t="n">
         <v>0.423</v>
@@ -4618,13 +4618,13 @@
         <v>0.548</v>
       </c>
       <c r="F91" t="n">
-        <v>0.54</v>
+        <v>0.509</v>
       </c>
       <c r="G91" t="n">
         <v>0.626</v>
       </c>
       <c r="H91" t="n">
-        <v>0.342</v>
+        <v>0.362</v>
       </c>
       <c r="I91" t="n">
         <v>0.5629999999999999</v>
@@ -4728,7 +4728,7 @@
         <v>0.5</v>
       </c>
       <c r="L93" t="n">
-        <v>0.44</v>
+        <v>0.395</v>
       </c>
       <c r="M93" t="n">
         <v>2.756756756756757</v>
@@ -4909,10 +4909,10 @@
         <v>0.333</v>
       </c>
       <c r="K97" t="n">
-        <v>0.407</v>
+        <v>0.337</v>
       </c>
       <c r="L97" t="n">
-        <v>0.438</v>
+        <v>0.387</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
@@ -4983,7 +4983,7 @@
         <v>0.451</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.523</v>
       </c>
       <c r="F99" t="n">
         <v>0.528</v>
@@ -4995,7 +4995,7 @@
         <v>0.343</v>
       </c>
       <c r="I99" t="n">
-        <v>0.54</v>
+        <v>0.501</v>
       </c>
       <c r="J99" t="n">
         <v>0.289</v>
@@ -5032,7 +5032,7 @@
         <v>0.545</v>
       </c>
       <c r="F100" t="n">
-        <v>0.438</v>
+        <v>0.477</v>
       </c>
       <c r="G100" t="n">
         <v>0.61</v>
@@ -5047,7 +5047,7 @@
         <v>0.332</v>
       </c>
       <c r="K100" t="n">
-        <v>0.489</v>
+        <v>0.383</v>
       </c>
       <c r="L100" t="n">
         <v>0.434</v>
